--- a/loaded_influencer_data/tseitsvincent/tseitsvincent_video.xlsx
+++ b/loaded_influencer_data/tseitsvincent/tseitsvincent_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7470305271768845614</t>
         </is>
@@ -515,7 +515,7 @@
         <v>2000000</v>
       </c>
       <c r="C2" t="n">
-        <v>242300</v>
+        <v>243800</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -524,18 +524,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>재미있는 깨달음이지만 더 어두운 색조에 대한 더 나은 이름 아이디어도 생각할 수 없습니다😂 (p.s 쿠션은 내가 가장 좋아하는 쿠션 파운데이션 중 하나입니다)</t>
+          <t>funny realization but I also can’t think of any better name ideas for darker shades 😂
+(p.s @Parnell US cushion is one of my favorite cushion foundation)</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12.135</v>
+        <v>12.21</v>
       </c>
       <c r="I2" t="n">
-        <v>12.115</v>
+        <v>12.19</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -544,7 +545,7 @@
         <v>0.02</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5</v>
+        <v>0.505</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,13 +559,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7466595360576720171</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>207600</v>
+        <v>208800</v>
       </c>
       <c r="C3" t="n">
         <v>22200</v>
@@ -576,27 +577,27 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>성공은 상대적이지만 여기까지 온 내 자신이 자랑스럽다고 말할 수 있는 곳에 있고 할머니를 초대해서 매일 내 경험을 할 수 있는 것이 그녀의 유일한 소원이 이루어졌음을 보여주는 가장 좋은 방법인 것 같았다. ❤️</t>
+          <t>success is relative but I’m at a place where I can say I’m proud of myself for getting this far and being able to invite my grandma over to experience my day to day seemed to be the best way to show her that her only wish has come true ❤️</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10.76589595375722</v>
+        <v>10.70402298850575</v>
       </c>
       <c r="I3" t="n">
-        <v>10.69364161849711</v>
+        <v>10.63218390804598</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0722543352601156</v>
+        <v>0.07183908045977011</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3559730250481695</v>
+        <v>0.3563218390804598</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,116 +611,118 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7485747091243945259</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7489496792296443178</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1770</v>
+        <v>1092</v>
       </c>
       <c r="C4" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>이 부드러운 3단계 방법으로 피부 장벽을 손상시키지 않고 코에서 블랙헤드와 덩어리를 제거하는 방법! 3/25-3/31에서 아마존 스프링 세일 기간 동안 50%를 받으세요!</t>
+          <t>getting ready in a hotel bathroom is a feeling i can’t explain ☺️
+@skinfood_global toner pads
+@SKIN1004 US</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6.101694915254238</v>
+        <v>13.00366300366301</v>
       </c>
       <c r="I4" t="n">
-        <v>5.875706214689266</v>
+        <v>12.45421245421245</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2259887005649718</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="L4" t="n">
-        <v>0.96045197740113</v>
+        <v>0.7326007326007326</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7485534430866574634</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7488757300144983339</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9626</v>
+        <v>1305</v>
       </c>
       <c r="C5" t="n">
-        <v>566</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>일등석 8개 중 2개만 채워져 있어서 승무원이 다른 좌석에서 자고 싶은지 물어서 당연히 예라고 했습니다. 😂</t>
+          <t>ill be wearing this everyday of spring @rhode skin spicy marg #makeup #blush</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5.994182422605443</v>
+        <v>5.823754789272031</v>
       </c>
       <c r="I5" t="n">
-        <v>5.879908580926657</v>
+        <v>5.593869731800766</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1142738416787866</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2077706212341575</v>
+        <v>0.7662835249042145</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7485020816611069230</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7488536628005195050</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7407</v>
+        <v>4020</v>
       </c>
       <c r="C6" t="n">
-        <v>409</v>
+        <v>157</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
@@ -728,298 +731,298 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>헤어 스타일링을 위한 팁 및 도구: -다운펌 도구를 사용하여 머리카락의 측면을 눕힙니다. - 바다 소금 스프레이를 사용하여 질감과 볼륨을 더합니다. -왁스를 사용하여 원하는 모양 만들기 -하루 종일 스타일을 유지하기 위한 헤어 스프레이</t>
+          <t>why are we paying to pay?!?! 🤔</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.575806669366815</v>
+        <v>4.00497512437811</v>
       </c>
       <c r="I6" t="n">
-        <v>5.521803699203456</v>
+        <v>3.90547263681592</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05400297016335898</v>
+        <v>0.09950248756218905</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7425408397461861</v>
+        <v>0.1990049751243781</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7484316788793183534</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7488468949101776174</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5640</v>
+        <v>3786</v>
       </c>
       <c r="C7" t="n">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>가장 짧은 12시간 비행✈️ ANA의 일등석 "The Suite"를 두 번째로 비행하지만 이번에는 직접 비행합니다! 일등석이나 비즈니스 클래스를 타려면 부자가 되어야 한다는 것은 일반적인 오해이지만 대부분의 사람들은 전략적으로 포인트로 예약합니다. 전 세계의 99%가 제대로 하는 방법을 모르고 있습니다.</t>
+          <t>81 days till i become a househusband (that doesn’t have to clean, cook, or do laundry) 🤗💍</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4.840425531914894</v>
+        <v>5.256207078711041</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75177304964539</v>
+        <v>5.018489170628632</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08865248226950355</v>
+        <v>0.2377179080824089</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3191489361702127</v>
+        <v>0.2905441098784998</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7483975366038703406</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7488332260769336619</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4705</v>
+        <v>6153</v>
       </c>
       <c r="C8" t="n">
-        <v>337</v>
+        <v>477</v>
       </c>
       <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>130</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tokyo, Osaka, and Kyoto are fun but have you been to Yokohama? It’s the most peaceful and beautiful city only 45 minutes from Shibuya Station</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7.817324882171299</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.752315943442223</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.06500893872907525</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.112790508694946</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7488037043541396778</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>534800</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20200</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1841</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>i always thought i was wearing the wrong shade but my neck is just naturally 5 shades darker than my face 😭 it’s a personal preference if you want to go a little brighter or match the exact shade of your face</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3.782161555721765</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.777112939416604</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.005048616305160808</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3442408376963351</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7487636451287420202</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2285</v>
+      </c>
+      <c r="C10" t="n">
+        <v>192</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>소녀들은 나를 싫어합니다. 왜냐하면 그들은 나에게 이것을 여러 번 다시 하게 했기 때문입니다. 😂@ROUND LAB #roundlab</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7.311370882040383</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.16259298618491</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1487778958554729</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.4038257173219979</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7483578486985379118</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>13500</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1317</v>
-      </c>
-      <c r="D9" t="n">
-        <v>15</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>59</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>그리고 나는 3개월 후에 다시 돌아갈거야 💍#seoul #travel</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9.866666666666667</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9.755555555555556</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.437037037037037</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7483209284315090222</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>47</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>spontaneously took the 1 hour ferry to Macau from Hong Kong to use my free hotel stay at Grand Hyatt Macau to walk the strip, explore cultural villages, and indulge in the best snacks. Alternatively you can make a day trip and go in the morning and return to Hong Kong at night if you dont want to stay overnight! #macau #travel</t>
+          <t>waiting until the last minute to pack for checkout then calling for late checkout every single time 😂</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.750937734433609</v>
+        <v>8.840262582056893</v>
       </c>
       <c r="I10" t="n">
-        <v>3.525881470367592</v>
+        <v>8.402625820568927</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2250562640660165</v>
+        <v>0.437636761487965</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3750937734433608</v>
+        <v>0.3063457330415755</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7482954938553945390</t>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7485747091243945259</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3968</v>
+        <v>1770</v>
       </c>
       <c r="C11" t="n">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>자발적으로 홍콩에서 마카오로 가는 1시간 페리를 타고 그랜드 하얏트 마카오에서 무료 호텔 숙박을 이용하여 스트립을 걷고, 문화 마을을 탐험하고, 최고의 간식을 먹었습니다. 또는 하루 여행을 하고 아침에 가서 하룻밤을 묵고 싶지 않다면 밤에 홍콩으로 돌아갈 수 있습니다!</t>
+          <t>이 부드러운 3단계 방법으로 피부 장벽을 손상시키지 않고 코에서 블랙헤드와 덩어리를 제거하는 방법! 3/25-3/31에서 아마존 스프링 세일 기간 동안 50%를 받으세요!</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.26008064516129</v>
+        <v>6.101694915254238</v>
       </c>
       <c r="I11" t="n">
-        <v>1.184475806451613</v>
+        <v>5.875706214689266</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07560483870967742</v>
+        <v>0.2259887005649718</v>
       </c>
       <c r="L11" t="n">
-        <v>0.126008064516129</v>
+        <v>0.96045197740113</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7482867026126507306</t>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7485534430866574634</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7911</v>
+        <v>9626</v>
       </c>
       <c r="C12" t="n">
-        <v>715</v>
+        <v>566</v>
       </c>
       <c r="D12" t="n">
         <v>11</v>
@@ -1028,294 +1031,298 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>아마도 당신이 비탄을 극복하기 위해 필요한 것은 아시아로의 단독 여행일 것입니다. ❤️‍🩹#solotravel #heartbreak</t>
+          <t>일등석 8개 중 2개만 채워져 있어서 승무원이 다른 좌석에서 자고 싶은지 물어서 당연히 예라고 했습니다. 😂</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9.177095183921123</v>
+        <v>5.994182422605443</v>
       </c>
       <c r="I12" t="n">
-        <v>9.038048287195046</v>
+        <v>5.879908580926657</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1390468967260776</v>
+        <v>0.1142738416787866</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2780937934521552</v>
+        <v>0.2077706212341575</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-25</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7482598800205434158</t>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7485020816611069230</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3451</v>
+        <v>7407</v>
       </c>
       <c r="C13" t="n">
-        <v>135</v>
+        <v>409</v>
       </c>
       <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>55</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>헤어 스타일링을 위한 팁 및 도구: -다운펌 도구를 사용하여 머리카락의 측면을 눕힙니다. - 바다 소금 스프레이를 사용하여 질감과 볼륨을 더합니다. -왁스를 사용하여 원하는 모양 만들기 -하루 종일 스타일을 유지하기 위한 헤어 스프레이</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5.575806669366815</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.521803699203456</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.05400297016335898</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.7425408397461861</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7484316788793183534</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5640</v>
+      </c>
+      <c r="C14" t="n">
+        <v>268</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>가장 짧은 12시간 비행✈️ ANA의 일등석 "The Suite"를 두 번째로 비행하지만 이번에는 직접 비행합니다! 일등석이나 비즈니스 클래스를 타려면 부자가 되어야 한다는 것은 일반적인 오해이지만 대부분의 사람들은 전략적으로 포인트로 예약합니다. 전 세계의 99%가 제대로 하는 방법을 모르고 있습니다.</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4.840425531914894</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.75177304964539</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.08865248226950355</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3191489361702127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7483975366038703406</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4705</v>
+      </c>
+      <c r="C15" t="n">
+        <v>337</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>소녀들은 나를 싫어합니다. 왜냐하면 그들은 나에게 이것을 여러 번 다시 하게 했기 때문입니다. 😂@ROUND LAB #roundlab</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7.311370882040383</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.16259298618491</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1487778958554729</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.4038257173219979</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7483578486985379118</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13500</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1317</v>
+      </c>
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>일본의 새로운 맛있는 레스토랑에서 먹을 수 있었던 소중한 식사를 왜 낭비하는지 궁금할 뿐입니다. 🙃#japan #travel</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4.346566212691974</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.911909591422776</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.4346566212691973</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.2028397565922921</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7482448965305257258</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>12200</v>
-      </c>
-      <c r="C14" t="n">
-        <v>891</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>59</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>7.40983606557377</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.303278688524591</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1065573770491803</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.4836065573770492</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7481819553966689582</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2207</v>
-      </c>
-      <c r="C15" t="n">
-        <v>109</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>내 큰 등이 제 시간에 뷔페에 도착했는데 내가 평생 먹어본 최고의 뷔페였어? ?? 이번 여행에서 "최고"와 "가장 좋아하는"이라는 단어를 너무 많이 사용했지만 정말 진심이에요! 곧 뷔페를 게시하겠습니다!</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5.346624376982329</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.938830992297237</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4077933846850929</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.1812415043044857</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2025-03-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7481706156763778346</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4071</v>
-      </c>
-      <c r="C16" t="n">
-        <v>189</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>이 벨트를 사는 홍콩행 비행기를 놓칠 뻔했다. 🙃</t>
+          <t>그리고 나는 3개월 후에 다시 돌아갈거야 💍#seoul #travel</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4.814541881601572</v>
+        <v>9.866666666666667</v>
       </c>
       <c r="I16" t="n">
-        <v>4.642593957258659</v>
+        <v>9.755555555555556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1719479243429133</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09825595676737901</v>
+        <v>0.437037037037037</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2025-03-20</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7481465370776243498</t>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7483209284315090222</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11900</v>
+        <v>1333</v>
       </c>
       <c r="C17" t="n">
-        <v>638</v>
+        <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20달러 대 라오헤 야시장 - 11달러만 썼고 너무 꽉 차서 야시장이 이긴 것 같아요! #solotravel #raohenightmarket #taipei</t>
+          <t>spontaneously took the 1 hour ferry to Macau from Hong Kong to use my free hotel stay at Grand Hyatt Macau to walk the strip, explore cultural villages, and indulge in the best snacks. Alternatively you can make a day trip and go in the morning and return to Hong Kong at night if you dont want to stay overnight! #macau #travel</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5.46218487394958</v>
+        <v>3.750937734433609</v>
       </c>
       <c r="I17" t="n">
-        <v>5.361344537815127</v>
+        <v>3.525881470367592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1008403361344538</v>
+        <v>0.2250562640660165</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3750937734433608</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-19</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7480695920414444846</t>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7482954938553945390</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2812</v>
+        <v>3968</v>
       </c>
       <c r="C18" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -1324,198 +1331,194 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1-2달러 버블티가 그리워요 😩 #taiwan #bubbletea #foodreview</t>
+          <t>자발적으로 홍콩에서 마카오로 가는 1시간 페리를 타고 그랜드 하얏트 마카오에서 무료 호텔 숙박을 이용하여 스트립을 걷고, 문화 마을을 탐험하고, 최고의 간식을 먹었습니다. 또는 하루 여행을 하고 아침에 가서 하룻밤을 묵고 싶지 않다면 밤에 홍콩으로 돌아갈 수 있습니다!</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5.369843527738265</v>
+        <v>1.26008064516129</v>
       </c>
       <c r="I18" t="n">
-        <v>5.263157894736842</v>
+        <v>1.184475806451613</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1066856330014225</v>
+        <v>0.07560483870967742</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5689900426742532</v>
+        <v>0.126008064516129</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7480346124537072938</t>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7482867026126507306</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1924</v>
+        <v>7911</v>
       </c>
       <c r="C19" t="n">
-        <v>136</v>
+        <v>715</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>일본에서 돌아온 기분 비행 일등석 😂</t>
+          <t>아마도 당신이 비탄을 극복하기 위해 필요한 것은 아시아로의 단독 여행일 것입니다. ❤️‍🩹#solotravel #heartbreak</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7.276507276507277</v>
+        <v>9.177095183921123</v>
       </c>
       <c r="I19" t="n">
-        <v>7.068607068607069</v>
+        <v>9.038048287195046</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2079002079002079</v>
+        <v>0.1390468967260776</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2598752598752599</v>
+        <v>0.2780937934521552</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-18</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7479876594417421611</t>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7482598800205434158</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1936</v>
+        <v>3451</v>
       </c>
       <c r="C20" t="n">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Spirated Away에서 영감을 받은 마을이 있는 Jiufen으로 당일 여행을 갔다가 고양이 마을을 방문하고 유명한 Raohe 야시장에서 완벽한 1일 일정을 위해 밤을 마쳤습니다.</t>
+          <t>일본의 새로운 맛있는 레스토랑에서 먹을 수 있었던 소중한 식사를 왜 낭비하는지 궁금할 뿐입니다. 🙃#japan #travel</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.648760330578512</v>
+        <v>4.346566212691974</v>
       </c>
       <c r="I20" t="n">
-        <v>4.545454545454546</v>
+        <v>3.911909591422776</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1033057851239669</v>
+        <v>0.4346566212691973</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2066115702479339</v>
+        <v>0.2028397565922921</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-17</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7479643845463084334</t>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7482448965305257258</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26000</v>
+        <v>12200</v>
       </c>
       <c r="C21" t="n">
-        <v>1152</v>
+        <v>891</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>32</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>이것을 촬영하기 위해 수개월을 기다렸습니다. 😂#firstclass #travel</t>
-        </is>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>4.457692307692308</v>
+        <v>7.40983606557377</v>
       </c>
       <c r="I21" t="n">
-        <v>4.43076923076923</v>
+        <v>7.303278688524591</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02692307692307692</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.4836065573770492</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-17</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7478478977112395054</t>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7481819553966689582</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5298</v>
+        <v>2207</v>
       </c>
       <c r="C22" t="n">
-        <v>375</v>
+        <v>109</v>
       </c>
       <c r="D22" t="n">
         <v>9</v>
@@ -1524,298 +1527,298 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>40시간의 여행 후 살아 있는 모습을 보이려고 노력#skincare #travel</t>
+          <t>내 큰 등이 제 시간에 뷔페에 도착했는데 내가 평생 먹어본 최고의 뷔페였어? ?? 이번 여행에서 "최고"와 "가장 좋아하는"이라는 단어를 너무 많이 사용했지만 정말 진심이에요! 곧 뷔페를 게시하겠습니다!</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7.248018120045301</v>
+        <v>5.346624376982329</v>
       </c>
       <c r="I22" t="n">
-        <v>7.078142695356739</v>
+        <v>4.938830992297237</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1698754246885617</v>
+        <v>0.4077933846850929</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4341260853152133</v>
+        <v>0.1812415043044857</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-15</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7477292189832432942</t>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7481706156763778346</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2817</v>
+        <v>4071</v>
       </c>
       <c r="C23" t="n">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>4</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>11</v>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2주간의 아시아 여행 가자!! ✈️</t>
+          <t>이 벨트를 사는 홍콩행 비행기를 놓칠 뻔했다. 🙃</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7.170749023784167</v>
+        <v>4.814541881601572</v>
       </c>
       <c r="I23" t="n">
-        <v>7.028753993610223</v>
+        <v>4.642593957258659</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1419950301739439</v>
+        <v>0.1719479243429133</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3904863329783458</v>
+        <v>0.09825595676737901</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-15</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7474314305849068842</t>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7481465370776243498</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7901</v>
+        <v>11900</v>
       </c>
       <c r="C24" t="n">
-        <v>318</v>
+        <v>638</v>
       </c>
       <c r="D24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>56</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>20달러 대 라오헤 야시장 - 11달러만 썼고 너무 꽉 차서 야시장이 이긴 것 같아요! #solotravel #raohenightmarket #taipei</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5.46218487394958</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.361344537815127</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1008403361344538</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7480695920414444846</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2812</v>
+      </c>
+      <c r="C25" t="n">
+        <v>148</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>16</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1-2달러 버블티가 그리워요 😩 #taiwan #bubbletea #foodreview</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5.369843527738265</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1066856330014225</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5689900426742532</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7480346124537072938</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C26" t="n">
+        <v>136</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>일본에서 돌아온 기분 비행 일등석 😂</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7.276507276507277</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7.068607068607069</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2079002079002079</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2598752598752599</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7479876594417421611</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C27" t="n">
+        <v>88</v>
+      </c>
+      <c r="D27" t="n">
         <v>2</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>내가 어디에 있든 내 성냥을 만족시켜야 해#matcha #travel</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4.050120237944564</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.024806986457411</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.02531325148715353</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.1265662574357676</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7473879930363989294</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2745</v>
-      </c>
-      <c r="C25" t="n">
-        <v>121</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>11</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>집, 체육관, 야외에서 즐겨 입는 고품질의 티셔츠@Robert Barakett #ad</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4.626593806921676</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.408014571948998</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2185792349726776</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.4007285974499089</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7472815185384803630</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>3648</v>
-      </c>
-      <c r="C26" t="n">
-        <v>192</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025년 분위기#postbreakup #cheating #glowup</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5.400219298245614</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.1370614035087719</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.08223684210526315</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7472552912984558890</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>15500</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1583</v>
-      </c>
-      <c r="D27" t="n">
-        <v>22</v>
-      </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>올해 독감이 심하다니 조심하세요!#apartmentcleaning</t>
+          <t>Spirated Away에서 영감을 받은 마을이 있는 Jiufen으로 당일 여행을 갔다가 고양이 마을을 방문하고 유명한 Raohe 야시장에서 완벽한 1일 일정을 위해 밤을 마쳤습니다.</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10.35483870967742</v>
+        <v>4.648760330578512</v>
       </c>
       <c r="I27" t="n">
-        <v>10.21290322580645</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1419354838709677</v>
+        <v>0.1033057851239669</v>
       </c>
       <c r="L27" t="n">
-        <v>1.012903225806452</v>
+        <v>0.2066115702479339</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-03-10</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7472057785673469230</t>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7479643845463084334</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118</v>
+        <v>26000</v>
       </c>
       <c r="C28" t="n">
-        <v>71</v>
+        <v>1152</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -1824,1134 +1827,1184 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>32</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>이것을 촬영하기 위해 수개월을 기다렸습니다. 😂#firstclass #travel</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4.457692307692308</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.43076923076923</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02692307692307692</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1230769230769231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7478478977112395054</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5298</v>
+      </c>
+      <c r="C29" t="n">
+        <v>375</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>23</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>40시간의 여행 후 살아 있는 모습을 보이려고 노력#skincare #travel</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7.248018120045301</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.078142695356739</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1698754246885617</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.4341260853152133</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7477292189832432942</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2817</v>
+      </c>
+      <c r="C30" t="n">
+        <v>198</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2주간의 아시아 여행 가자!! ✈️</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7.170749023784167</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.028753993610223</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1419950301739439</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3904863329783458</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7474314305849068842</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7901</v>
+      </c>
+      <c r="C31" t="n">
+        <v>318</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>내가 어디에 있든 내 성냥을 만족시켜야 해#matcha #travel</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4.050120237944564</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.024806986457411</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02531325148715353</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.1265662574357676</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7473879930363989294</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2745</v>
+      </c>
+      <c r="C32" t="n">
+        <v>121</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>집, 체육관, 야외에서 즐겨 입는 고품질의 티셔츠@Robert Barakett #ad</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4.626593806921676</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.408014571948998</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2185792349726776</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.4007285974499089</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7472815185384803630</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3648</v>
+      </c>
+      <c r="C33" t="n">
+        <v>192</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>3</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025년 분위기#postbreakup #cheating #glowup</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5.400219298245614</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1370614035087719</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.08223684210526315</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7472552912984558890</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15500</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1583</v>
+      </c>
+      <c r="D34" t="n">
+        <v>22</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>157</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>올해 독감이 심하다니 조심하세요!#apartmentcleaning</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10.35483870967742</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10.21290322580645</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1419354838709677</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.012903225806452</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tseitsvincent/video/7472057785673469230</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3118</v>
+      </c>
+      <c r="C35" t="n">
+        <v>71</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>나에게 도움이 되지 않는 것에서 멀어진 내 자신이 너무 자랑스럽다 🫶🏻#healing #selflove</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H35" t="n">
         <v>2.501603592046183</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I35" t="n">
         <v>2.2771007055805</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.2245028864656831</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L35" t="n">
         <v>0.09621552277100706</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7471742635422649642</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B36" t="n">
         <v>5982</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C36" t="n">
         <v>219</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D36" t="n">
         <v>7</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>11</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>someone’s gotta fund this korea/japan trip 🤒</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H36" t="n">
         <v>3.778000668672685</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I36" t="n">
         <v>3.66098294884654</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.1170177198261451</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L36" t="n">
         <v>0.183884988298228</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7471460251573931310</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B37" t="n">
         <v>7595</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C37" t="n">
         <v>237</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D37" t="n">
         <v>16</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>18</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>당신은 있는 그대로 사랑받을 자격이 있습니다 ❤️</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H37" t="n">
         <v>3.331138907175774</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I37" t="n">
         <v>3.120473996050033</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.2106649111257406</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L37" t="n">
         <v>0.2369980250164582</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7471449550142704938</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B38" t="n">
         <v>8866</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C38" t="n">
         <v>160</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D38" t="n">
         <v>7</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>8</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>당신이 있을 때 발렌타인이 필요한 사람 ❤️🌹@AXIS-Y</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H38" t="n">
         <v>1.883600270697045</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I38" t="n">
         <v>1.804646965937289</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.07895330475975637</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L38" t="n">
         <v>0.09023234829686443</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7471388655374961963</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B39" t="n">
         <v>38500</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C39" t="n">
         <v>5112</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D39" t="n">
         <v>149</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>210</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>강하게 사랑하고 같은 방식으로 사랑받을 자격이 있는 모든 상처받은 마음에게 내 사랑을 보내❤️‍🩹 그 사랑이 긴장이나 고통 없이 열 번의 접힘으로 보답될 때까지 지금은 자신을 위해 그 사랑을 아껴두세요... 그 날이 언제 올지, 이 생에 언제 올지 모르겠지만 당신은 하루의 끝에 당신을 가지고 있습니다.</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H39" t="n">
         <v>13.66493506493507</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I39" t="n">
         <v>13.27792207792208</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.387012987012987</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L39" t="n">
         <v>0.5454545454545455</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7471048067978939694</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B40" t="n">
         <v>2700000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C40" t="n">
         <v>201200</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D40" t="n">
         <v>185</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>6390</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>몇몇 서양 브랜드들이 그것을 하기도 전에 한국 브랜드들이 그들의 파운데이션 쉐이드 범위를 확장하는 것을 보는 것은 멋지다🫢 나는 내 친구가 그의 쉐이드를 찾았다고 생각하도록 가스라이팅을 하려고 했지만 나는 우리가 몇 가지 더 어두운 쉐이드가 필요하다고 🤣</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H40" t="n">
         <v>7.458703703703703</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I40" t="n">
         <v>7.451851851851851</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.006851851851851852</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L40" t="n">
         <v>0.2366666666666667</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7469526017367870762</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B41" t="n">
         <v>32400</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C41" t="n">
         <v>402</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D41" t="n">
         <v>18</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>48</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>미국 FDA가 승인한 새로운 공식을 참을성 있게 기다리고 있습니다. 🥺@Beauty of Joseon US #sunscreen</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H41" t="n">
         <v>1.296296296296296</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I41" t="n">
         <v>1.240740740740741</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.05555555555555555</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L41" t="n">
         <v>0.1481481481481481</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7468706542947339566</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B42" t="n">
         <v>28100</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C42" t="n">
         <v>529</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D42" t="n">
         <v>5</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>115</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>스킨케어와 메이크업은 단 한 번의 스킨케어 혜택과 가벼운 커버력으로 's Cicamanu Serum Cushion'을 탄생시켰습니다! -흠을 숨깁니다 -피부톤도 고르게 -홍조와 자극받은 피부를 진정시키고 진정시킵니다</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H42" t="n">
         <v>1.900355871886121</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I42" t="n">
         <v>1.882562277580071</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.01779359430604982</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L42" t="n">
         <v>0.4092526690391459</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7467988102162746667</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B43" t="n">
         <v>13300</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C43" t="n">
         <v>529</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D43" t="n">
         <v>5</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>115</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>스킨케어와 메이크업은 단 한 번의 스킨케어 혜택과 가벼운 커버력으로 's Cicamanu Serum Cushion'을 탄생시켰습니다! -흠을 숨깁니다 -피부톤도 고르게 -홍조와 자극받은 피부를 진정시키고 진정시킵니다</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H43" t="n">
         <v>4.015037593984962</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I43" t="n">
         <v>3.977443609022556</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.03759398496240602</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L43" t="n">
         <v>0.8646616541353384</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7467694857981562154</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B44" t="n">
         <v>10100</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C44" t="n">
         <v>441</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D44" t="n">
         <v>12</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>32</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>어떤 날은 차라리 집에 머물면서 이 일을 하고 🤷🏻‍♂️ 미안하지 않아 미안하지 않아@bringgreen_official #squidgame</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H44" t="n">
         <v>4.485148514851485</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I44" t="n">
         <v>4.366336633663366</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.1188118811881188</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L44" t="n">
         <v>0.3168316831683168</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7467216455692553514</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B45" t="n">
         <v>4500000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C45" t="n">
         <v>209</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D45" t="n">
         <v>3</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>18</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>많은 시도 끝에 마침내 토미 재즈를 방문했고 추위 속에서 1.5시간을 기다릴 만한 가치가 있다고 생각합니다! -아늑한 분위기 -합리적인 가격의 음식/음료 -사랑스러운 재즈 음악</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H45" t="n">
         <v>0.004711111111111111</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I45" t="n">
         <v>0.004644444444444445</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>6.666666666666667e-05</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L45" t="n">
         <v>0.0004</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7466859668271353134</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B46" t="n">
         <v>17200</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C46" t="n">
         <v>4711</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D46" t="n">
         <v>7</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>178</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>AD 스킨케어는 비쌀 수 있으므로 40달러 미만의 루틴이 있습니다!@CVS Pharmacy #HealthierHappensTogether</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H46" t="n">
         <v>27.43023255813953</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I46" t="n">
         <v>27.38953488372093</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.04069767441860465</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L46" t="n">
         <v>1.034883720930233</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7466253286564203818</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B47" t="n">
         <v>6988</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C47" t="n">
         <v>556</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D47" t="n">
         <v>12</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>28</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>인플레이션은 매년 이 빨간 봉투를 점점 더 작게 보이게 했습니다. 😫#chinesenewyear #redenvelope</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H47" t="n">
         <v>8.128219805380652</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I47" t="n">
         <v>7.95649685174585</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.1717229536348025</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L47" t="n">
         <v>0.4006868918145393</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7465798334746217774</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B48" t="n">
         <v>8562</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C48" t="n">
         <v>168</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D48" t="n">
         <v>3</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>22</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>열을 가하고 잠을 자고 여드름 트리트먼트를 사용하면 피부가 벗겨지고 팽팽하지만 이 세 가지 크림은 건조함을 퇴치하는 데 도움이 되었습니다. 울트라 페이셜 크림 바쿠치올 크림 익스트림 크림</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H48" t="n">
         <v>1.997196916608269</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I48" t="n">
         <v>1.962158374211633</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.0350385423966363</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L48" t="n">
         <v>0.2569493109086662</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7465097705614839083</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B49" t="n">
         <v>7182</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C49" t="n">
         <v>405</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D49" t="n">
         <v>12</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>25</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>내가 싸우고 있는 다른 종류의 전쟁#menmakeup #makeuproutine</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H49" t="n">
         <v>5.806182121971595</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I49" t="n">
         <v>5.639097744360902</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.1670843776106934</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L49" t="n">
         <v>0.3480924533556112</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7464614565762862379</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B50" t="n">
         <v>2200000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C50" t="n">
         <v>356</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D50" t="n">
         <v>9</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>14</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>음력 정월에는 "허용되지 않음" 때문에 중국 새해 전에 머리를 자르는 전통#lunarnewyear #chinesenewyear #gongxifacai</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H50" t="n">
         <v>0.01659090909090909</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I50" t="n">
         <v>0.01618181818181818</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.0004090909090909091</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L50" t="n">
         <v>0.0006363636363636363</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tseitsvincent/video/7464285161606237482</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B51" t="n">
         <v>28400</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C51" t="n">
         <v>1815</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D51" t="n">
         <v>13</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>268</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>뷰티 어시스턴트 L'Oréal Paris Beauty Genius를 사용하여 세부 정보를 무료로 얻을 수 있는데 왜 피부 분석 비용을 지불합니까?</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H51" t="n">
         <v>6.436619718309859</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I51" t="n">
         <v>6.390845070422535</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.04577464788732395</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L51" t="n">
         <v>0.943661971830986</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7463951398414142762</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>5474</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1044</v>
-      </c>
-      <c r="D45" t="n">
-        <v>22</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>130</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>중학교 때 갈색/주황색(내 최악의 색)이 된 후 다시는 머리를 염색하지 않습니다. 🤢#personalcolor #coloranalysis</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>19.47387650712459</v>
-      </c>
-      <c r="I45" t="n">
-        <v>19.07197661673365</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.401899890390939</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.37486298867373</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-01-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7463497809430383914</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5059</v>
-      </c>
-      <c r="C46" t="n">
-        <v>277</v>
-      </c>
-      <c r="D46" t="n">
-        <v>27</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>15</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>조부모님과 시간을 보내는 것은 여러분이 그들에게 줄 수 있는 최고의 선물입니다! 나는 적어도 한 달에 두 번 할머니를 방문하려고 노력하고 한 시간도 채 떨어지지 않은 곳에 사는 것이 행운입니다. ❤️</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6.009092706068393</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.475390393358371</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.5337023127100218</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.296501284838901</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-01-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7463224113184787755</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>6637</v>
-      </c>
-      <c r="C47" t="n">
-        <v>155</v>
-      </c>
-      <c r="D47" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>21</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>건조한 피부에 과샤를 🚫 마십시오. 다음 중 하나를 사용하여 피부에 당기지 않도록 부드러운 활공 #guasha #facesculpting</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>2.455928883531716</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.335392496609914</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.120536386921802</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.3164080156697303</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-01-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7462832417485638955</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>3883</v>
-      </c>
-      <c r="C48" t="n">
-        <v>409</v>
-      </c>
-      <c r="D48" t="n">
-        <v>13</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>69</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>메이크업이 너무 무거워 보이거나 부자연스럽게 나온다면 이 팁을 시도해 보세요! #makeover #makeuptips #kbeauty</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10.86788565542107</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10.53309296935359</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.3347926860674736</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.776976564511975</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-01-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7462074674500013358</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>31800</v>
-      </c>
-      <c r="C49" t="n">
-        <v>128</v>
-      </c>
-      <c r="D49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>11</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>why is replacing a cushion compact with a refill so satisfying 😮‍💨 #cushionfoundation #asmr #cushionfoundation #asmr</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>0.4119496855345912</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.4025157232704402</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.03459119496855346</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-01-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tseitsvincent/video/7461783854873906478</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>23400</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1630</v>
-      </c>
-      <c r="D50" t="n">
-        <v>61</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>31</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>한 달 후에 나라를 떠나기를 기다릴 수 없다 🧳</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7.226495726495727</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.965811965811966</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2606837606837607</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.1324786324786325</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
         </is>
       </c>
     </row>
